--- a/visualization/src/table/python_read.xlsx
+++ b/visualization/src/table/python_read.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\Pycharm\study\NumPy\visualization\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\Pycharm\study\NumPy\visualization\src\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5D891D-EF30-408D-B750-CE57F9DC6651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FABCC3D-D8F7-40C9-BBB6-F560E65CC06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" activeTab="1" xr2:uid="{804CECC1-CD4D-44AE-9613-D919FE2A45DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{804CECC1-CD4D-44AE-9613-D919FE2A45DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="94">
   <si>
     <t>Hawks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,10 +690,13 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -876,6 +879,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -883,106 +887,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E96CBA-8A1C-4E1C-9EE6-9C2FE8EBE5C3}">
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
       <c r="C3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
       <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>21</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>16</v>
       </c>
       <c r="K6" t="s">
@@ -991,15 +972,12 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="K7" t="s">
@@ -1008,15 +986,12 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
@@ -1025,15 +1000,12 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="K9" t="s">
@@ -1042,15 +1014,12 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
@@ -1059,15 +1028,12 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="K11" t="s">
@@ -1076,32 +1042,26 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
         <v>23</v>
       </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
       <c r="C14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
         <v>11</v>
       </c>
       <c r="N14" t="s">
@@ -1110,38 +1070,32 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
         <v>24</v>
       </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
       <c r="C15">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
       <c r="N15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
         <v>25</v>
       </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
       <c r="C16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
@@ -1150,18 +1104,15 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>18</v>
       </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="N17" t="s">
@@ -1170,18 +1121,15 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
         <v>13</v>
       </c>
       <c r="N18" t="s">
@@ -1190,38 +1138,32 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
       <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="K21" t="s">
@@ -1230,21 +1172,18 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
         <v>28</v>
       </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
       <c r="C22">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
@@ -1253,21 +1192,18 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
         <v>29</v>
       </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
       <c r="C23">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
@@ -1276,21 +1212,18 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
         <v>30</v>
       </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
       <c r="C24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
         <v>2</v>
       </c>
       <c r="K24" t="s">
@@ -1299,21 +1232,18 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
         <v>31</v>
       </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
       <c r="C25">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
@@ -1322,21 +1252,18 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="K26" t="s">
@@ -1345,21 +1272,18 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
         <v>33</v>
       </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
       <c r="C27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="K27" t="s">
@@ -1368,21 +1292,18 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
@@ -1391,21 +1312,18 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
         <v>35</v>
       </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
       <c r="C29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
@@ -1414,21 +1332,18 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
         <v>20</v>
       </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
       <c r="C30">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
@@ -1437,21 +1352,18 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
         <v>36</v>
       </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
       <c r="C31">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
@@ -1460,35 +1372,29 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
         <v>37</v>
       </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
       <c r="C32">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="D34">
         <v>9</v>
       </c>
       <c r="H34" t="s">
@@ -1497,15 +1403,12 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="H35" t="s">
@@ -1514,15 +1417,12 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="H36" t="s">
@@ -1531,15 +1431,12 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="D37">
         <v>15</v>
       </c>
       <c r="H37" t="s">
@@ -1548,15 +1445,12 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="D38">
         <v>6</v>
       </c>
       <c r="H38" t="s">
@@ -1565,15 +1459,12 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C39">
+      <c r="B39">
         <v>17</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="H39" t="s">
@@ -1582,15 +1473,12 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C40">
+      <c r="B40">
         <v>17</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="H40" t="s">
@@ -1599,35 +1487,29 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="C41">
+      <c r="B41">
         <v>17</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
         <v>45</v>
       </c>
+      <c r="B43">
+        <v>16</v>
+      </c>
       <c r="C43">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="K43" t="s">
@@ -1636,21 +1518,18 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
         <v>13</v>
       </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
       <c r="C44">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="K44" t="s">
@@ -1659,21 +1538,18 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
         <v>46</v>
       </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
       <c r="C45">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="K45" t="s">
@@ -1682,21 +1558,18 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46">
+      <c r="B46">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
-        <v>8</v>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>12</v>
-      </c>
-      <c r="F46">
         <v>4</v>
       </c>
       <c r="K46" t="s">
@@ -1705,21 +1578,18 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="C47">
+      <c r="B47">
         <v>18</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47">
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
         <v>13</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="K47" t="s">
@@ -1728,35 +1598,29 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
         <v>43</v>
       </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
       <c r="C48">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>8</v>
-      </c>
-      <c r="F48">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50">
+      <c r="B50">
         <v>12</v>
       </c>
-      <c r="E50">
+      <c r="D50">
         <v>12</v>
       </c>
       <c r="J50" t="s">
@@ -1765,35 +1629,29 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C51">
+      <c r="B51">
         <v>12</v>
       </c>
-      <c r="E51">
+      <c r="D51">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
         <v>50</v>
       </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
       <c r="C53">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
         <v>9</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="R53" t="s">
@@ -1802,21 +1660,18 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="C54">
+      <c r="B54">
         <v>20</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="R54" t="s">
@@ -1825,21 +1680,18 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
         <v>52</v>
       </c>
-      <c r="C55">
+      <c r="B55">
         <v>21</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="R55" t="s">
@@ -1848,21 +1700,18 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="C56">
+      <c r="B56">
         <v>15</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
         <v>11</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="R56" t="s">
@@ -1871,21 +1720,18 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57">
+      <c r="B57">
         <v>26</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
         <v>10</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="R57" t="s">
@@ -1894,21 +1740,18 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C58">
+      <c r="B58">
         <v>14</v>
       </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
         <v>8</v>
       </c>
       <c r="R58" t="s">
@@ -1917,21 +1760,18 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
         <v>33</v>
       </c>
-      <c r="C59">
+      <c r="B59">
         <v>12</v>
       </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
         <v>8</v>
       </c>
       <c r="R59" t="s">
@@ -1940,21 +1780,18 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
         <v>22</v>
       </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
       <c r="C60">
-        <v>10</v>
-      </c>
-      <c r="D60">
         <v>13</v>
       </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
       <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
         <v>8</v>
       </c>
       <c r="R60" t="s">
@@ -1963,21 +1800,18 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
         <v>14</v>
       </c>
+      <c r="B61">
+        <v>24</v>
+      </c>
       <c r="C61">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="R61" t="s">
@@ -1986,41 +1820,35 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
         <v>15</v>
       </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
       <c r="C62">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>6</v>
-      </c>
-      <c r="F62">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
         <v>53</v>
       </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
       <c r="C64">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="N64" t="s">
@@ -2029,21 +1857,18 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
         <v>17</v>
       </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
       <c r="C65">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>7</v>
-      </c>
-      <c r="E65">
         <v>5</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="N65" t="s">
@@ -2052,21 +1877,18 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
         <v>18</v>
       </c>
+      <c r="B66">
+        <v>21</v>
+      </c>
       <c r="C66">
-        <v>21</v>
-      </c>
-      <c r="D66">
         <v>4</v>
       </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
       <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
         <v>8</v>
       </c>
       <c r="N66" t="s">
@@ -2075,21 +1897,18 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
         <v>54</v>
       </c>
-      <c r="C67">
+      <c r="B67">
         <v>15</v>
       </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67">
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
         <v>5</v>
       </c>
-      <c r="F67" t="s">
+      <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="N67" t="s">
@@ -2098,21 +1917,18 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
         <v>50</v>
       </c>
+      <c r="B68">
+        <v>22</v>
+      </c>
       <c r="C68">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68">
         <v>6</v>
       </c>
-      <c r="F68" t="s">
+      <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="N68" t="s">
@@ -2121,21 +1937,18 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
         <v>14</v>
       </c>
+      <c r="B69">
+        <v>18</v>
+      </c>
       <c r="C69">
-        <v>18</v>
-      </c>
-      <c r="D69">
         <v>6</v>
       </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69">
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
         <v>3</v>
       </c>
       <c r="N69" t="s">
@@ -2144,41 +1957,35 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
         <v>55</v>
       </c>
-      <c r="C70">
+      <c r="B70">
         <v>10</v>
       </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
         <v>56</v>
       </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
       <c r="C72">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
@@ -2205,21 +2012,18 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
         <v>57</v>
       </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
       <c r="C73">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>7</v>
-      </c>
-      <c r="F73">
         <v>3</v>
       </c>
       <c r="H73" t="s">
@@ -2243,21 +2047,18 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
         <v>55</v>
       </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
       <c r="C74">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>6</v>
-      </c>
-      <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
@@ -2284,21 +2085,18 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
         <v>58</v>
       </c>
+      <c r="B75">
+        <v>28</v>
+      </c>
       <c r="C75">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="G75" t="s">
@@ -2325,21 +2123,18 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
         <v>59</v>
       </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
       <c r="C76">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>7</v>
-      </c>
-      <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
@@ -2366,21 +2161,18 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
         <v>60</v>
       </c>
+      <c r="B77">
+        <v>30</v>
+      </c>
       <c r="C77">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>7</v>
-      </c>
-      <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="s">
@@ -2407,21 +2199,18 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
         <v>61</v>
       </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
       <c r="C78">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>5</v>
-      </c>
-      <c r="F78">
         <v>2</v>
       </c>
       <c r="G78" t="s">
@@ -2448,21 +2237,18 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
         <v>62</v>
       </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
       <c r="C79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>17</v>
-      </c>
-      <c r="F79">
         <v>1</v>
       </c>
       <c r="G79" t="s">
@@ -2489,10 +2275,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2501,9 +2287,6 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
         <v>8</v>
       </c>
       <c r="G80" t="s">
@@ -2530,21 +2313,18 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
         <v>63</v>
       </c>
+      <c r="B81">
+        <v>18</v>
+      </c>
       <c r="C81">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
@@ -2571,21 +2351,18 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
         <v>64</v>
       </c>
-      <c r="C82">
+      <c r="B82">
         <v>11</v>
       </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82">
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
         <v>4</v>
       </c>
-      <c r="F82" t="s">
+      <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="G82" t="s">
@@ -2612,10 +2389,10 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -2624,9 +2401,6 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
         <v>8</v>
       </c>
       <c r="K84" t="s">
@@ -2635,21 +2409,18 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
         <v>65</v>
       </c>
-      <c r="C85">
+      <c r="B85">
         <v>12</v>
       </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85">
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85">
         <v>10</v>
       </c>
-      <c r="F85" t="s">
+      <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="K85" t="s">
@@ -2658,21 +2429,18 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
         <v>66</v>
       </c>
+      <c r="B86">
+        <v>18</v>
+      </c>
       <c r="C86">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
         <v>3</v>
       </c>
-      <c r="F86" t="s">
+      <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="K86" t="s">
@@ -2681,21 +2449,18 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
         <v>67</v>
       </c>
+      <c r="B87">
+        <v>16</v>
+      </c>
       <c r="C87">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>7</v>
-      </c>
-      <c r="F87">
         <v>2</v>
       </c>
       <c r="K87" t="s">
@@ -2704,21 +2469,18 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
         <v>68</v>
       </c>
-      <c r="C88">
+      <c r="B88">
         <v>31</v>
       </c>
-      <c r="D88" t="s">
-        <v>8</v>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>7</v>
-      </c>
-      <c r="F88">
         <v>2</v>
       </c>
       <c r="K88" t="s">
@@ -2727,21 +2489,18 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
         <v>69</v>
       </c>
-      <c r="C89">
+      <c r="B89">
         <v>9</v>
       </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89">
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
         <v>12</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="K89" t="s">
@@ -2750,21 +2509,18 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
         <v>52</v>
       </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
       <c r="C90">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>7</v>
-      </c>
-      <c r="F90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
@@ -2773,21 +2529,18 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
         <v>21</v>
       </c>
+      <c r="B91">
+        <v>19</v>
+      </c>
       <c r="C91">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
         <v>11</v>
       </c>
-      <c r="F91" t="s">
+      <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="K91" t="s">
@@ -2796,21 +2549,18 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
         <v>20</v>
       </c>
+      <c r="B92">
+        <v>20</v>
+      </c>
       <c r="C92">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>8</v>
-      </c>
-      <c r="F92">
         <v>2</v>
       </c>
       <c r="K92" t="s">
@@ -2819,21 +2569,18 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
         <v>70</v>
       </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
       <c r="C93">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>4</v>
-      </c>
-      <c r="F93">
         <v>1</v>
       </c>
       <c r="K93" t="s">
@@ -2842,21 +2589,18 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
         <v>71</v>
       </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
       <c r="C94">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>4</v>
-      </c>
-      <c r="F94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
@@ -2865,41 +2609,35 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" t="s">
         <v>72</v>
       </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
       <c r="C95">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95">
         <v>2</v>
       </c>
-      <c r="F95" t="s">
+      <c r="E95" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
         <v>73</v>
       </c>
-      <c r="C97">
+      <c r="B97">
         <v>4</v>
       </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
         <v>8</v>
       </c>
       <c r="I97" t="s">
@@ -2908,18 +2646,15 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
         <v>56</v>
       </c>
-      <c r="C98">
+      <c r="B98">
         <v>10</v>
       </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
       <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
@@ -2928,21 +2663,18 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
         <v>13</v>
       </c>
-      <c r="C99">
+      <c r="B99">
         <v>28</v>
       </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99">
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
         <v>18</v>
       </c>
-      <c r="F99" t="s">
+      <c r="E99" t="s">
         <v>8</v>
       </c>
       <c r="I99" t="s">
@@ -2951,18 +2683,15 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" t="s">
         <v>8</v>
       </c>
       <c r="I100" t="s">
@@ -2971,41 +2700,35 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
         <v>75</v>
       </c>
-      <c r="C101">
+      <c r="B101">
         <v>13</v>
       </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
         <v>60</v>
       </c>
+      <c r="B103">
+        <v>19</v>
+      </c>
       <c r="C103">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103">
-        <v>3</v>
-      </c>
-      <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" t="s">
@@ -3020,21 +2743,18 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
         <v>65</v>
       </c>
+      <c r="B104">
+        <v>16</v>
+      </c>
       <c r="C104">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E104">
-        <v>7</v>
-      </c>
-      <c r="F104">
         <v>4</v>
       </c>
       <c r="G104" t="s">
@@ -3049,21 +2769,18 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
         <v>63</v>
       </c>
+      <c r="B105">
+        <v>27</v>
+      </c>
       <c r="C105">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>2</v>
-      </c>
-      <c r="F105">
         <v>1</v>
       </c>
       <c r="G105" t="s">
@@ -3078,21 +2795,18 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" t="s">
         <v>76</v>
       </c>
+      <c r="B106">
+        <v>17</v>
+      </c>
       <c r="C106">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>5</v>
-      </c>
-      <c r="F106">
         <v>1</v>
       </c>
       <c r="G106" t="s">
@@ -3104,21 +2818,18 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" t="s">
         <v>77</v>
       </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
       <c r="C107">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>8</v>
-      </c>
-      <c r="F107">
         <v>1</v>
       </c>
       <c r="G107" t="s">
@@ -3133,21 +2844,18 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" t="s">
         <v>16</v>
       </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
       <c r="C108">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
         <v>8</v>
       </c>
       <c r="G108" t="s">
@@ -3162,21 +2870,18 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="s">
         <v>78</v>
       </c>
+      <c r="B109">
+        <v>23</v>
+      </c>
       <c r="C109">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>2</v>
-      </c>
-      <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
@@ -3191,21 +2896,18 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
         <v>79</v>
       </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
       <c r="C110">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>2</v>
-      </c>
-      <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
@@ -3217,21 +2919,18 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" t="s">
         <v>23</v>
       </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
       <c r="C112">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>10</v>
-      </c>
-      <c r="F112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
@@ -3240,21 +2939,18 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" t="s">
         <v>80</v>
       </c>
+      <c r="B113">
+        <v>19</v>
+      </c>
       <c r="C113">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113">
         <v>4</v>
       </c>
-      <c r="F113" t="s">
+      <c r="E113" t="s">
         <v>8</v>
       </c>
       <c r="M113" t="s">
@@ -3263,21 +2959,18 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" t="s">
         <v>81</v>
       </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
       <c r="C114">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D114">
         <v>7</v>
       </c>
       <c r="E114">
-        <v>7</v>
-      </c>
-      <c r="F114">
         <v>2</v>
       </c>
       <c r="M114" t="s">
@@ -3286,21 +2979,18 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" t="s">
         <v>82</v>
       </c>
+      <c r="B115">
+        <v>13</v>
+      </c>
       <c r="C115">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>6</v>
-      </c>
-      <c r="F115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
@@ -3309,64 +2999,55 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" t="s">
         <v>15</v>
       </c>
+      <c r="B116">
+        <v>13</v>
+      </c>
       <c r="C116">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
       <c r="M116" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
         <v>58</v>
       </c>
+      <c r="B117">
+        <v>18</v>
+      </c>
       <c r="C117">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" t="s">
         <v>43</v>
       </c>
-      <c r="C119">
+      <c r="B119">
         <v>12</v>
       </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119">
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119">
         <v>3</v>
       </c>
-      <c r="F119" t="s">
+      <c r="E119" t="s">
         <v>8</v>
       </c>
       <c r="R119" t="s">
@@ -3375,21 +3056,18 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" t="s">
         <v>28</v>
       </c>
-      <c r="C120">
+      <c r="B120">
         <v>21</v>
       </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
         <v>8</v>
       </c>
       <c r="R120" t="s">
@@ -3398,21 +3076,18 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
         <v>41</v>
       </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
       <c r="C121">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121">
-        <v>7</v>
-      </c>
-      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
         <v>8</v>
       </c>
       <c r="R121" t="s">
@@ -3421,21 +3096,18 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" t="s">
         <v>43</v>
       </c>
-      <c r="C122">
+      <c r="B122">
         <v>12</v>
       </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122">
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
         <v>3</v>
       </c>
-      <c r="F122" t="s">
+      <c r="E122" t="s">
         <v>8</v>
       </c>
       <c r="R122" t="s">
@@ -3444,21 +3116,18 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" t="s">
         <v>83</v>
       </c>
-      <c r="C123">
+      <c r="B123">
         <v>10</v>
       </c>
-      <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123">
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
         <v>5</v>
       </c>
-      <c r="F123" t="s">
+      <c r="E123" t="s">
         <v>8</v>
       </c>
       <c r="R123" t="s">
@@ -3467,21 +3136,18 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
         <v>30</v>
       </c>
-      <c r="C124">
+      <c r="B124">
         <v>14</v>
       </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
         <v>8</v>
       </c>
       <c r="R124" t="s">
@@ -3490,21 +3156,18 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" t="s">
         <v>84</v>
       </c>
-      <c r="C125">
+      <c r="B125">
         <v>15</v>
       </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
-      <c r="E125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125">
+      <c r="E125">
         <v>2</v>
       </c>
       <c r="R125" t="s">
@@ -3513,21 +3176,18 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" t="s">
         <v>85</v>
       </c>
-      <c r="C126">
+      <c r="B126">
         <v>18</v>
       </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
         <v>8</v>
       </c>
       <c r="R126" t="s">
@@ -3536,21 +3196,18 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" t="s">
         <v>72</v>
       </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
       <c r="C127">
-        <v>4</v>
-      </c>
-      <c r="D127">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
         <v>8</v>
       </c>
       <c r="R127" t="s">
@@ -3559,38 +3216,32 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" t="s">
         <v>73</v>
       </c>
-      <c r="C128">
+      <c r="B128">
         <v>16</v>
       </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128">
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128">
         <v>4</v>
       </c>
-      <c r="F128" t="s">
+      <c r="E128" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" t="s">
         <v>20</v>
       </c>
-      <c r="C130">
+      <c r="B130">
         <v>24</v>
       </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130">
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130">
         <v>15</v>
       </c>
       <c r="G130" t="s">
@@ -3599,18 +3250,15 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" t="s">
         <v>86</v>
       </c>
-      <c r="C131">
+      <c r="B131">
         <v>20</v>
       </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
       <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" t="s">
         <v>8</v>
       </c>
       <c r="G131" t="s">
@@ -3619,18 +3267,15 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>7</v>
-      </c>
-      <c r="B132" t="s">
         <v>46</v>
       </c>
-      <c r="C132">
+      <c r="B132">
         <v>17</v>
       </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
       <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" t="s">
         <v>8</v>
       </c>
       <c r="G132" t="s">
@@ -3639,32 +3284,26 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" t="s">
         <v>13</v>
       </c>
-      <c r="C133">
+      <c r="B133">
         <v>20</v>
       </c>
-      <c r="E133">
+      <c r="D133">
         <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" t="s">
         <v>87</v>
       </c>
+      <c r="B135">
+        <v>17</v>
+      </c>
       <c r="C135">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>3</v>
-      </c>
-      <c r="E135">
         <v>4</v>
       </c>
       <c r="H135" t="s">
@@ -3673,18 +3312,15 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" t="s">
         <v>88</v>
       </c>
+      <c r="B136">
+        <v>18</v>
+      </c>
       <c r="C136">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
         <v>1</v>
       </c>
       <c r="H136" t="s">
@@ -3693,18 +3329,15 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" t="s">
         <v>8</v>
       </c>
       <c r="H137" t="s">
@@ -3713,18 +3346,15 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" t="s">
         <v>8</v>
       </c>
       <c r="H138" t="s">
@@ -3733,35 +3363,29 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" t="s">
         <v>25</v>
       </c>
+      <c r="B139">
+        <v>19</v>
+      </c>
       <c r="C139">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <v>10</v>
-      </c>
-      <c r="E139">
         <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" t="s">
         <v>90</v>
       </c>
-      <c r="C141">
+      <c r="B141">
         <v>15</v>
       </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
       <c r="D141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" t="s">
         <v>8</v>
       </c>
       <c r="G141" t="s">
@@ -3770,18 +3394,15 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" t="s">
         <v>29</v>
       </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
       <c r="C142">
-        <v>16</v>
-      </c>
-      <c r="D142">
         <v>9</v>
       </c>
-      <c r="E142" t="s">
+      <c r="D142" t="s">
         <v>8</v>
       </c>
       <c r="G142" t="s">
@@ -3790,18 +3411,15 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" t="s">
         <v>42</v>
       </c>
-      <c r="C143">
+      <c r="B143">
         <v>14</v>
       </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
       <c r="D143" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" t="s">
         <v>8</v>
       </c>
       <c r="G143" t="s">
@@ -3810,18 +3428,15 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>7</v>
-      </c>
-      <c r="B144" t="s">
         <v>91</v>
       </c>
-      <c r="C144">
+      <c r="B144">
         <v>23</v>
       </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144">
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144">
         <v>14</v>
       </c>
       <c r="G144" t="s">
@@ -3830,18 +3445,15 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" t="s">
         <v>14</v>
       </c>
-      <c r="C145">
+      <c r="B145">
         <v>16</v>
       </c>
-      <c r="D145" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145">
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
         <v>4</v>
       </c>
       <c r="G145" t="s">
@@ -3850,38 +3462,32 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" t="s">
         <v>15</v>
       </c>
+      <c r="B146">
+        <v>20</v>
+      </c>
       <c r="C146">
-        <v>20</v>
-      </c>
-      <c r="D146">
-        <v>7</v>
-      </c>
-      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" t="s">
         <v>45</v>
       </c>
-      <c r="C148">
+      <c r="B148">
         <v>13</v>
       </c>
-      <c r="D148" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148">
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
         <v>10</v>
       </c>
-      <c r="F148" t="s">
+      <c r="E148" t="s">
         <v>8</v>
       </c>
       <c r="I148" t="s">
@@ -3890,21 +3496,18 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" t="s">
         <v>46</v>
       </c>
+      <c r="B149">
+        <v>11</v>
+      </c>
       <c r="C149">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>3</v>
-      </c>
-      <c r="E149">
         <v>2</v>
       </c>
-      <c r="F149" t="s">
+      <c r="E149" t="s">
         <v>8</v>
       </c>
       <c r="I149" t="s">
@@ -3913,21 +3516,18 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" t="s">
         <v>13</v>
       </c>
-      <c r="C150">
+      <c r="B150">
         <v>14</v>
       </c>
-      <c r="D150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150">
-        <v>7</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
         <v>8</v>
       </c>
       <c r="I150" t="s">
@@ -3936,21 +3536,18 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" t="s">
         <v>88</v>
       </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
       <c r="C151">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
         <v>4</v>
       </c>
       <c r="I151" t="s">
@@ -3959,21 +3556,18 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" t="s">
         <v>92</v>
       </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
       <c r="C152">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D152">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152">
         <v>1</v>
       </c>
       <c r="I152" t="s">
@@ -3982,21 +3576,18 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" t="s">
         <v>93</v>
       </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
       <c r="C153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153">
         <v>6</v>
       </c>
-      <c r="F153" t="s">
+      <c r="E153" t="s">
         <v>8</v>
       </c>
       <c r="I153" t="s">
@@ -4005,21 +3596,18 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B154" t="s">
         <v>26</v>
       </c>
+      <c r="B154">
+        <v>11</v>
+      </c>
       <c r="C154">
-        <v>11</v>
-      </c>
-      <c r="D154">
         <v>3</v>
       </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
       <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" t="s">
         <v>8</v>
       </c>
       <c r="I154" t="s">
@@ -4028,44 +3616,38 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" t="s">
         <v>78</v>
       </c>
+      <c r="B155">
+        <v>24</v>
+      </c>
       <c r="C155">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D155">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>2</v>
       </c>
-      <c r="F155">
-        <v>2</v>
-      </c>
       <c r="I155" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" t="s">
         <v>59</v>
       </c>
-      <c r="C156">
+      <c r="B156">
         <v>11</v>
       </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
       <c r="D156" t="s">
         <v>8</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
         <v>8</v>
       </c>
       <c r="I156" t="s">
@@ -4074,38 +3656,32 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" t="s">
         <v>18</v>
       </c>
-      <c r="C157">
+      <c r="B157">
         <v>13</v>
       </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
       <c r="D157" t="s">
         <v>8</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" t="s">
         <v>24</v>
       </c>
+      <c r="B159">
+        <v>25</v>
+      </c>
       <c r="C159">
-        <v>25</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
         <v>8</v>
       </c>
       <c r="G159" t="s">
@@ -4114,35 +3690,29 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" t="s">
         <v>25</v>
       </c>
-      <c r="C160">
+      <c r="B160">
         <v>30</v>
       </c>
-      <c r="D160" t="s">
+      <c r="C160" t="s">
         <v>8</v>
       </c>
       <c r="G160" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" t="s">
         <v>60</v>
       </c>
-      <c r="C161">
+      <c r="B161">
         <v>23</v>
       </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
       <c r="D161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" t="s">
         <v>8</v>
       </c>
     </row>
